--- a/streamflow-data-raw/data-dict.xlsx
+++ b/streamflow-data-raw/data-dict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizacohn/Desktop/cascaded-hydro/streamflow-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizacohn/Desktop/cascaded-hydro/streamflow-data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4F79D6-047C-5F47-B38D-0577BC3ED638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926DA16C-5CC2-634F-A9B0-54BE40EBFCA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="760" windowWidth="28740" windowHeight="16920" activeTab="5" xr2:uid="{91E4E570-4FDA-D248-8E42-05C4D408F481}"/>
+    <workbookView xWindow="180" yWindow="760" windowWidth="28740" windowHeight="16920" xr2:uid="{91E4E570-4FDA-D248-8E42-05C4D408F481}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0000E+00"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0.000E+00"/>
+    <numFmt numFmtId="167" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -804,7 +804,7 @@
     <xf numFmtId="11" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1229,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD51759A-88E3-AC40-9138-3704E9D6A5FC}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="124" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="124" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.3"/>
@@ -6524,7 +6524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB35300-098C-3C44-97E3-2DD3A32320BD}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
